--- a/AAMC/AAMC Sample Test Score Conversion.xlsx
+++ b/AAMC/AAMC Sample Test Score Conversion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\AAMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4415A8-9E6A-4F18-A2E1-738180FA28A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E94C9B-BED2-4E1E-9F6A-75665DF1EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Estimator" sheetId="1" r:id="rId1"/>
@@ -86,56 +86,66 @@
       <sz val="20"/>
       <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -292,14 +302,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +529,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -543,9 +553,9 @@
       <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -680,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="18">
         <f>VLOOKUP(B13, 'Score Conversion Full Table'!M3:O61, 2, FALSE)</f>
@@ -692,7 +702,7 @@
       </c>
       <c r="E13">
         <f>B13/59</f>
-        <v>0.74576271186440679</v>
+        <v>0.72881355932203384</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -1746,29 +1756,29 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="24"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="29"/>
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="29"/>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="R1" s="29"/>

--- a/AAMC/AAMC Sample Test Score Conversion.xlsx
+++ b/AAMC/AAMC Sample Test Score Conversion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\AAMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melto\Documents\MCAT\AAMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E94C9B-BED2-4E1E-9F6A-75665DF1EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F8BFE-0585-41C0-A1D9-6012A7A1E11C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Estimator" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -574,19 +574,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>50</v>
+        <f>50+4</f>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
         <f>VLOOKUP(B4, 'Score Conversion Full Table'!A3:C61, 2, FALSE)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2">
         <f>VLOOKUP(B4, 'Score Conversion Full Table'!A3:C61, 3, FALSE)</f>
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E4">
         <f>B4/59</f>
-        <v>0.84745762711864403</v>
+        <v>0.9152542372881356</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -651,19 +652,20 @@
         <v>7</v>
       </c>
       <c r="B10" s="13">
-        <v>45</v>
+        <f>45+5</f>
+        <v>50</v>
       </c>
       <c r="C10" s="14">
         <f>VLOOKUP(B10, 'Score Conversion Full Table'!I3:K61, 2, FALSE)</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" s="14">
         <f>VLOOKUP(B10, 'Score Conversion Full Table'!I3:K61, 3, FALSE)</f>
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <f>B10/59</f>
-        <v>0.76271186440677963</v>
+        <v>0.84745762711864403</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -690,19 +692,20 @@
         <v>8</v>
       </c>
       <c r="B13" s="17">
-        <v>43</v>
+        <f>43+8</f>
+        <v>51</v>
       </c>
       <c r="C13" s="18">
         <f>VLOOKUP(B13, 'Score Conversion Full Table'!M3:O61, 2, FALSE)</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D13" s="18">
         <f>VLOOKUP(B13, 'Score Conversion Full Table'!M3:O61, 3, FALSE)</f>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E13">
         <f>B13/59</f>
-        <v>0.72881355932203384</v>
+        <v>0.86440677966101698</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -727,11 +730,11 @@
       </c>
       <c r="B16" s="23">
         <f>SUM(C4+C7+C10+C13)</f>
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C16" s="23">
         <f>VLOOKUP(B16, 'Score Conversion Full Table'!Q3:R63, 2, FALSE)</f>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D16" s="5"/>
     </row>
